--- a/backend/web/samples/Schools.xlsx
+++ b/backend/web/samples/Schools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23023"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23028"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09267F6-46DD-41CC-A03B-A043E33C0A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0D3F0A9-4E30-4045-9FC1-62E43F39032E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>School Name</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Next To</t>
+  </si>
+  <si>
+    <t>Has Health Insurance</t>
+  </si>
+  <si>
+    <t>Health Insurance Cost</t>
   </si>
   <si>
     <t>school one</t>
@@ -532,7 +538,7 @@
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -548,8 +554,9 @@
     <col min="11" max="13" width="9.140625"/>
     <col min="14" max="14" width="30.5703125" customWidth="1"/>
     <col min="15" max="15" width="22.85546875" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" customWidth="1"/>
-    <col min="17" max="28" width="9.140625"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="18" max="28" width="9.140625"/>
     <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -602,44 +609,50 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="AMJ1"/>
     </row>
     <row r="2" spans="1:1024">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2">
         <v>38.268238310000001</v>
@@ -648,48 +661,54 @@
         <v>-104.6109419</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1024">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M3">
         <v>38.268238310000001</v>
@@ -698,10 +717,16 @@
         <v>-104.6109419</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/backend/web/samples/Schools.xlsx
+++ b/backend/web/samples/Schools.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23107"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0D3F0A9-4E30-4045-9FC1-62E43F39032E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{964BE66E-AE88-4F35-8CE2-07D35B6ECDB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>School Name</t>
   </si>
@@ -63,9 +63,6 @@
     <t>العنوان التفصيلي</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
@@ -114,59 +111,17 @@
     <t>عنوان تفصيلي ١</t>
   </si>
   <si>
-    <t xml:space="preserve">Location1 </t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
     <t>test aa</t>
-  </si>
-  <si>
-    <t>school two</t>
-  </si>
-  <si>
-    <t>مدرسة الثانية</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>usa</t>
-  </si>
-  <si>
-    <t>usa state 1</t>
-  </si>
-  <si>
-    <t>usa city 1</t>
-  </si>
-  <si>
-    <t>Details tow</t>
-  </si>
-  <si>
-    <t>التفاصيل ٢</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>عنوان تفصيلي ٢</t>
-  </si>
-  <si>
-    <t>Locatio 2</t>
-  </si>
-  <si>
-    <t>EGP</t>
-  </si>
-  <si>
-    <t>test bb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -182,11 +137,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -212,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,7 +170,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,32 +484,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="7" width="9.140625"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.140625"/>
     <col min="10" max="10" width="24.28515625" customWidth="1"/>
-    <col min="11" max="13" width="9.140625"/>
-    <col min="14" max="14" width="30.5703125" customWidth="1"/>
-    <col min="15" max="15" width="22.85546875" customWidth="1"/>
-    <col min="16" max="16" width="20" customWidth="1"/>
-    <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="28" width="9.140625"/>
-    <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
+    <col min="11" max="12" width="9.140625"/>
+    <col min="13" max="13" width="30.5703125" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" customWidth="1"/>
+    <col min="15" max="15" width="20" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="9.140625"/>
+    <col min="1023" max="1023" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="1" customFormat="1">
+    <row r="1" spans="1:1023" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,133 +551,71 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AMI1"/>
+    </row>
+    <row r="2" spans="1:1023">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="AMJ1"/>
-    </row>
-    <row r="2" spans="1:1024">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2">
+        <v>38.268238310000001</v>
+      </c>
+      <c r="M2">
+        <v>-104.6109419</v>
+      </c>
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="M2">
-        <v>38.268238310000001</v>
-      </c>
-      <c r="N2">
-        <v>-104.6109419</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
       <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2">
+        <v>19</v>
+      </c>
+      <c r="Q2">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1024">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3">
-        <v>38.268238310000001</v>
-      </c>
-      <c r="N3">
-        <v>-104.6109419</v>
-      </c>
-      <c r="O3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
